--- a/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,85; 12,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,23; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,64; 258,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,27%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,41; 18,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,91; 5,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 11,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,92; 182,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,68%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 10,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,34; 168,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 26,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 6,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,68; 304,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 20,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 11,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,91; 164,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-8,35</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 9,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,68%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 8,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,56; 64,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,5; 45,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,84; 784,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,6%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>-2.812633224594853</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.169933477971396</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.781915208870157</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1860399608335011</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,124 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 12,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-84,64; 258,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.8480503726818</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.43205065977125</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.8464159235468436</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.80621059994503</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.83129350873216</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.583380823897063</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-7,2%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-75,84%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>134,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-35,41; 18,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,91; 5,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 11,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-80,92; 182,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.841789864826324</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-8.866936847943045</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.653918129692434</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.07195163714714628</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.7043685101177154</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.503001505320196</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,38%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-45,28%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-71,68%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-35.40514912950263</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-40.7642317898333</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.929595751704955</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.8092159963956852</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 10,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 2,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 0,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-61,34; 168,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.77055484507891</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.676605859305583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.60798008334874</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.823608935180343</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +761,149 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>14,62</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>107,56%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>50,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8993267387322423</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.414426993433552</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.710382545154572</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.06380954939539477</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4473455248471762</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.6193063249879374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 26,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 6,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 304,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.4132301335868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.131747632514863</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.335351886888736</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6134276455598412</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.31859804595228</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.65146347055887</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.775139739109402</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.683872378228598</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>20,88%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 20,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 11,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,69; 0,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-45,91; 164,85</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C13" s="5" t="n">
+        <v>14.61509907106455</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.027468246638223</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.913884888096078</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.07559751731053</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3882916474561356</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,35</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-52,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.153560039497354</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.060039482632278</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.06684458448708042</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-27,39; 9,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>26.35066500866514</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.496158200204613</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.818590781761785</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.041889653720069</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +911,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-51,82%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>80,68%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.827219774548416</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.3545846675341864</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.422959437299125</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.2087719948304331</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.06281770458869526</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 8,73</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 0,93</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,34</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-23,56; 64,46</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-91,5; 45,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-64,84; 784,52</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.08570378855697</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.380253270225554</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.055503913577224</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.4590528160374411</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>20.98274720813323</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.77968717819626</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.648494015522608</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-8.34668185790783</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.5266956333532339</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-27.39246700701078</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9.030321710546236</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.920330432505138</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.602737983308077</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.982924879832772</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1127901221105567</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.5041293039186517</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.8954964179893322</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.211188182148108</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.0018631139603</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.8662875360118384</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2356350178799319</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.8955503773221517</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6163537474486853</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.725248564269963</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8305113123887017</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.030716172176831</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6446094336886673</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.4445010713808417</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>7.81657600425674</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1124,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
